--- a/devasc_studyplan.xlsx
+++ b/devasc_studyplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Python\dev_net cert work\study_for_ccna_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808DDA2B-65C0-4F9E-B26C-2FCA41E4311E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D21CA69-3116-496D-BC16-D548FEEB06F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19812" yWindow="3504" windowWidth="26268" windowHeight="18372" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6588" yWindow="6564" windowWidth="26268" windowHeight="18372" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="294">
   <si>
     <t>Important notes</t>
   </si>
@@ -913,6 +913,9 @@
   </si>
   <si>
     <t>Already Know</t>
+  </si>
+  <si>
+    <t>Broken: instructions are bad</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1641,7 @@
   <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1802,6 +1805,9 @@
       <c r="E9" s="8" t="s">
         <v>242</v>
       </c>
+      <c r="F9" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
@@ -1890,7 +1896,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -1904,7 +1910,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -1918,7 +1924,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>275</v>
       </c>
@@ -1932,7 +1938,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>275</v>
       </c>
@@ -1945,8 +1951,11 @@
       <c r="E20" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>275</v>
       </c>
@@ -1960,7 +1969,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>275</v>
       </c>
@@ -1974,7 +1983,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -1988,7 +1997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>3</v>
       </c>
@@ -2005,7 +2014,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>31</v>
       </c>
@@ -2019,7 +2028,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -2033,7 +2042,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>34</v>
       </c>
@@ -2047,7 +2056,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>36</v>
       </c>
@@ -2061,7 +2070,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>32</v>
       </c>
@@ -2075,7 +2084,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>37</v>
       </c>
@@ -2089,7 +2098,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>256</v>
       </c>

--- a/devasc_studyplan.xlsx
+++ b/devasc_studyplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Python\dev_net cert work\study_for_ccna_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D21CA69-3116-496D-BC16-D548FEEB06F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88092AF4-D7B0-41D4-A44E-58F25E438A2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6588" yWindow="6564" windowWidth="26268" windowHeight="18372" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="294">
   <si>
     <t>Important notes</t>
   </si>
@@ -1641,7 +1641,7 @@
   <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1968,6 +1968,9 @@
       <c r="E21" s="8" t="s">
         <v>56</v>
       </c>
+      <c r="F21" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
@@ -1981,6 +1984,9 @@
       </c>
       <c r="E22" s="8" t="s">
         <v>55</v>
+      </c>
+      <c r="F22" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">

--- a/devasc_studyplan.xlsx
+++ b/devasc_studyplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Python\dev_net cert work\study_for_ccna_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88092AF4-D7B0-41D4-A44E-58F25E438A2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E186A2-E678-458A-AEF1-CE8B263A61A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6588" yWindow="6564" windowWidth="26268" windowHeight="18372" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="294">
   <si>
     <t>Important notes</t>
   </si>
@@ -1641,7 +1641,7 @@
   <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2001,6 +2001,9 @@
       </c>
       <c r="E23" s="8" t="s">
         <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">

--- a/devasc_studyplan.xlsx
+++ b/devasc_studyplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Python\dev_net cert work\study_for_ccna_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E186A2-E678-458A-AEF1-CE8B263A61A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C4C525-4D9D-4373-8BDA-B9372E9F73D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6588" yWindow="6564" windowWidth="26268" windowHeight="18372" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19392" yWindow="3180" windowWidth="26268" windowHeight="18372" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="295">
   <si>
     <t>Important notes</t>
   </si>
@@ -916,6 +916,9 @@
   </si>
   <si>
     <t>Broken: instructions are bad</t>
+  </si>
+  <si>
+    <t>They kinda skip over A LOT of importand stuff here</t>
   </si>
 </sst>
 </file>
@@ -1638,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1896,7 +1899,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -1910,7 +1913,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -1924,7 +1927,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>275</v>
       </c>
@@ -1938,7 +1941,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>275</v>
       </c>
@@ -1955,7 +1958,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>275</v>
       </c>
@@ -1972,7 +1975,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>275</v>
       </c>
@@ -1989,7 +1992,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -2006,7 +2009,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>3</v>
       </c>
@@ -2023,7 +2026,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>31</v>
       </c>
@@ -2037,7 +2040,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -2051,7 +2054,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>34</v>
       </c>
@@ -2065,7 +2068,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>36</v>
       </c>
@@ -2078,8 +2081,11 @@
       <c r="E29" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>32</v>
       </c>
@@ -2092,8 +2098,14 @@
       <c r="E30" s="8" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>291</v>
+      </c>
+      <c r="G30" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>37</v>
       </c>
@@ -2107,7 +2119,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>256</v>
       </c>

--- a/devasc_studyplan.xlsx
+++ b/devasc_studyplan.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Python\dev_net cert work\study_for_ccna_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cert work\study_for_ccna_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C4C525-4D9D-4373-8BDA-B9372E9F73D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6F134C-76B0-4CA6-AD7F-32225457FA2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19392" yWindow="3180" windowWidth="26268" windowHeight="18372" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16170" yWindow="2640" windowWidth="37965" windowHeight="29415" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="10WEEK" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="300">
   <si>
     <t>Important notes</t>
   </si>
@@ -919,6 +920,21 @@
   </si>
   <si>
     <t>They kinda skip over A LOT of importand stuff here</t>
+  </si>
+  <si>
+    <t>Don't see how using flask addresses thoseE</t>
+  </si>
+  <si>
+    <t>MVC here, probably quite importand</t>
+  </si>
+  <si>
+    <t>Skipping most of this</t>
+  </si>
+  <si>
+    <t>Just a tool that does json to yaml</t>
+  </si>
+  <si>
+    <t>Not much to this</t>
   </si>
 </sst>
 </file>
@@ -980,7 +996,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -990,6 +1006,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,7 +1051,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1053,6 +1075,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1427,180 +1452,180 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>282</v>
       </c>
@@ -1641,22 +1666,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.296875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="51.296875" customWidth="1"/>
-    <col min="3" max="3" width="7.796875" customWidth="1"/>
+    <col min="1" max="1" width="8.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="51.25" customWidth="1"/>
+    <col min="3" max="3" width="7.75" customWidth="1"/>
     <col min="4" max="4" width="48.5" customWidth="1"/>
     <col min="5" max="5" width="50" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
@@ -1672,8 +1698,9 @@
       <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1689,11 +1716,11 @@
       <c r="E2" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -1706,11 +1733,11 @@
       <c r="E3" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>274</v>
       </c>
@@ -1723,11 +1750,11 @@
       <c r="E4" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>274</v>
       </c>
@@ -1740,11 +1767,11 @@
       <c r="E5" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>274</v>
       </c>
@@ -1757,11 +1784,11 @@
       <c r="E6" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>274</v>
       </c>
@@ -1774,11 +1801,11 @@
       <c r="E7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>274</v>
       </c>
@@ -1791,11 +1818,11 @@
       <c r="E8" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>274</v>
       </c>
@@ -1808,11 +1835,11 @@
       <c r="E9" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2</v>
       </c>
@@ -1828,8 +1855,12 @@
       <c r="E11" s="9" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="9"/>
+      <c r="H11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
@@ -1842,8 +1873,14 @@
       <c r="E12" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>291</v>
+      </c>
+      <c r="H12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -1856,8 +1893,11 @@
       <c r="E13" s="8">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -1870,8 +1910,11 @@
       <c r="E14" s="8">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -1884,8 +1927,11 @@
       <c r="E15" s="8">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>35</v>
       </c>
@@ -1898,8 +1944,11 @@
       <c r="E16" s="8">
         <v>4.1100000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -1912,8 +1961,11 @@
       <c r="E17" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -1926,8 +1978,11 @@
       <c r="E18" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>275</v>
       </c>
@@ -1941,7 +1996,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>275</v>
       </c>
@@ -1954,11 +2009,11 @@
       <c r="E20" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>275</v>
       </c>
@@ -1971,11 +2026,11 @@
       <c r="E21" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>275</v>
       </c>
@@ -1988,11 +2043,11 @@
       <c r="E22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -2005,11 +2060,12 @@
       <c r="E23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="13"/>
+      <c r="G23" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>3</v>
       </c>
@@ -2026,7 +2082,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>31</v>
       </c>
@@ -2040,7 +2096,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -2054,7 +2110,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>34</v>
       </c>
@@ -2068,7 +2124,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>36</v>
       </c>
@@ -2081,11 +2137,11 @@
       <c r="E29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>32</v>
       </c>
@@ -2098,14 +2154,14 @@
       <c r="E30" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>291</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>37</v>
       </c>
@@ -2118,8 +2174,12 @@
       <c r="E31" s="8" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F31" s="13"/>
+      <c r="G31" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>256</v>
       </c>
@@ -2132,8 +2192,11 @@
       <c r="E32" s="8" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>257</v>
       </c>
@@ -2146,8 +2209,11 @@
       <c r="E33" s="8" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>42</v>
       </c>
@@ -2160,8 +2226,11 @@
       <c r="E34" s="8" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>284</v>
       </c>
@@ -2174,8 +2243,12 @@
       <c r="E35" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="13"/>
+      <c r="G35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>4</v>
       </c>
@@ -2192,7 +2265,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>49</v>
       </c>
@@ -2206,7 +2279,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>78</v>
       </c>
@@ -2220,7 +2293,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>78</v>
       </c>
@@ -2234,7 +2307,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>78</v>
       </c>
@@ -2248,7 +2321,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>48</v>
       </c>
@@ -2262,7 +2335,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>50</v>
       </c>
@@ -2276,7 +2349,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>79</v>
       </c>
@@ -2290,7 +2363,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>79</v>
       </c>
@@ -2304,7 +2377,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>79</v>
       </c>
@@ -2318,7 +2391,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>80</v>
       </c>
@@ -2332,7 +2405,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>93</v>
       </c>
@@ -2346,7 +2419,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>81</v>
       </c>
@@ -2360,7 +2433,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>81</v>
       </c>
@@ -2374,7 +2447,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>96</v>
       </c>
@@ -2388,7 +2461,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>97</v>
       </c>
@@ -2402,7 +2475,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>98</v>
       </c>
@@ -2416,7 +2489,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>82</v>
       </c>
@@ -2430,7 +2503,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>82</v>
       </c>
@@ -2444,7 +2517,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>82</v>
       </c>
@@ -2458,7 +2531,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>87</v>
       </c>
@@ -2472,7 +2545,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>87</v>
       </c>
@@ -2486,7 +2559,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>87</v>
       </c>
@@ -2500,7 +2573,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>88</v>
       </c>
@@ -2514,7 +2587,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>91</v>
       </c>
@@ -2528,7 +2601,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>5</v>
       </c>
@@ -2545,7 +2618,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>112</v>
       </c>
@@ -2559,7 +2632,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>112</v>
       </c>
@@ -2573,7 +2646,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>112</v>
       </c>
@@ -2587,7 +2660,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>112</v>
       </c>
@@ -2601,7 +2674,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>111</v>
       </c>
@@ -2615,7 +2688,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>119</v>
       </c>
@@ -2629,7 +2702,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>119</v>
       </c>
@@ -2643,7 +2716,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>120</v>
       </c>
@@ -2657,7 +2730,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>115</v>
       </c>
@@ -2671,7 +2744,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>115</v>
       </c>
@@ -2685,7 +2758,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>115</v>
       </c>
@@ -2699,7 +2772,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>125</v>
       </c>
@@ -2713,7 +2786,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>127</v>
       </c>
@@ -2727,7 +2800,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>127</v>
       </c>
@@ -2741,7 +2814,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>127</v>
       </c>
@@ -2755,7 +2828,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>133</v>
       </c>
@@ -2769,7 +2842,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
         <v>290</v>
       </c>
@@ -2783,7 +2856,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>6</v>
       </c>
@@ -2800,7 +2873,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>155</v>
       </c>
@@ -2814,7 +2887,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>155</v>
       </c>
@@ -2828,7 +2901,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>155</v>
       </c>
@@ -2842,7 +2915,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>155</v>
       </c>
@@ -2856,7 +2929,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>270</v>
       </c>
@@ -2870,7 +2943,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>271</v>
       </c>
@@ -2884,7 +2957,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
         <v>153</v>
       </c>
@@ -2898,7 +2971,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>162</v>
       </c>
@@ -2912,7 +2985,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>161</v>
       </c>
@@ -2926,7 +2999,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>161</v>
       </c>
@@ -2940,7 +3013,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>161</v>
       </c>
@@ -2954,7 +3027,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>161</v>
       </c>
@@ -2968,7 +3041,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>152</v>
       </c>
@@ -2982,7 +3055,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>152</v>
       </c>
@@ -2996,7 +3069,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>160</v>
       </c>
@@ -3010,7 +3083,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>160</v>
       </c>
@@ -3024,7 +3097,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>160</v>
       </c>
@@ -3038,7 +3111,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>7</v>
       </c>
@@ -3055,7 +3128,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>193</v>
       </c>
@@ -3069,7 +3142,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>192</v>
       </c>
@@ -3083,7 +3156,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>166</v>
       </c>
@@ -3097,7 +3170,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>184</v>
       </c>
@@ -3111,7 +3184,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>185</v>
       </c>
@@ -3125,7 +3198,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>186</v>
       </c>
@@ -3139,7 +3212,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>187</v>
       </c>
@@ -3153,7 +3226,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>188</v>
       </c>
@@ -3167,7 +3240,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>189</v>
       </c>
@@ -3181,7 +3254,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>189</v>
       </c>
@@ -3195,7 +3268,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>8</v>
       </c>
@@ -3212,7 +3285,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>230</v>
       </c>
@@ -3226,7 +3299,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>214</v>
       </c>
@@ -3240,7 +3313,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>215</v>
       </c>
@@ -3254,7 +3327,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
         <v>232</v>
       </c>
@@ -3268,7 +3341,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>216</v>
       </c>
@@ -3282,7 +3355,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>217</v>
       </c>
@@ -3296,7 +3369,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>236</v>
       </c>
@@ -3310,7 +3383,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
         <v>194</v>
       </c>
@@ -3324,7 +3397,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B122" s="10" t="s">
         <v>224</v>
       </c>
@@ -3338,7 +3411,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>228</v>
       </c>
@@ -3352,7 +3425,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>227</v>
       </c>
@@ -3366,7 +3439,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>219</v>
       </c>
@@ -3380,7 +3453,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
         <v>212</v>
       </c>
@@ -3394,7 +3467,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
         <v>211</v>
       </c>
@@ -3408,7 +3481,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>9</v>
       </c>
@@ -3425,7 +3498,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>10</v>
       </c>
@@ -3442,7 +3515,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
         <v>249</v>
       </c>
@@ -3456,7 +3529,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B133" s="10" t="s">
         <v>250</v>
       </c>
@@ -3470,7 +3543,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
         <v>251</v>
       </c>
@@ -3484,7 +3557,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
         <v>288</v>
       </c>
@@ -3637,4 +3710,18 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A48F375-83C7-421E-B819-C1A05669F521}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>